--- a/Model_Results.xlsx
+++ b/Model_Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaspe\OneDrive\Documents\UiO\Prosjektemne\EquinorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1478690A-95B9-48D7-8A4F-F6DE833E504A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0780A8A0-DFD2-4AA8-ABE0-DD4598D47A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3247" yWindow="8002" windowWidth="20714" windowHeight="13276" xr2:uid="{39DBC19B-E69C-43C2-B1E3-9D558216D90C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{39DBC19B-E69C-43C2-B1E3-9D558216D90C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
-  <si>
-    <t>No Battery</t>
-  </si>
-  <si>
-    <t>Base Case Spinning Reserve</t>
-  </si>
-  <si>
-    <t>Base Case Spinning Reserve and Peakshaving</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Case:</t>
   </si>
@@ -91,6 +83,18 @@
   <si>
     <t>SR</t>
   </si>
+  <si>
+    <t>Base Case 1</t>
+  </si>
+  <si>
+    <t>Base Case 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Battery Eff</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,18 +239,16 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -251,44 +259,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -296,18 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,10 +285,62 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,6 +448,93 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-364C-484A-B5A3-7591A1ADB176}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -457,8 +563,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -479,8 +584,8 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -523,8 +628,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -545,8 +649,8 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -561,15 +665,138 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-A135-4B3D-8184-507F6B50A8A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-364C-484A-B5A3-7591A1ADB176}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -588,10 +815,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -610,10 +834,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -689,13 +910,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Ark1'!$B$4:$D$25</c15:sqref>
+                    <c15:sqref>'Ark1'!$B$4:$D$24</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Ark1'!$B$6:$D$25</c:f>
+              <c:f>'Ark1'!$B$6:$D$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>20 %</c:v>
@@ -706,92 +927,74 @@
                   <c:pt idx="2">
                     <c:v>80 %</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20 %</c:v>
+                  </c:pt>
                   <c:pt idx="4">
+                    <c:v>50 %</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>80 %</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>20 %</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="7">
                     <c:v>50 %</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>80 %</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>20 %</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>50 %</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>80 %</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>NA</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="4">
-                    <c:v>Time</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Load</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Time</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1000 kw</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>100 kw</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Load</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>SR</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Load</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>1000 kw</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>100 kw</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Base Case Spinning Reserve</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Base Case Spinning Reserve and Peakshaving</c:v>
+                    <c:v>SR</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Time</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>SR</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>Time</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1000 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>100 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1000 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>100 kw</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Base Case 2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Case 1</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="16">
                     <c:v>Case 2</c:v>
                   </c:pt>
                 </c:lvl>
@@ -812,55 +1015,55 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.7177221192395566</c:v>
+                  <c:v>3.8496562806892243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0177609173600031</c:v>
+                  <c:v>4.1603428265333449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3186618959348193</c:v>
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0862422997946615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9461999396473684</c:v>
+                  <c:v>4.4165699491116861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2652067077639346</c:v>
+                  <c:v>4.7442192661369518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5816269345173941</c:v>
+                  <c:v>4.196946701187394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0531103159891364</c:v>
+                  <c:v>4.5263815730738326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3712549036513346</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6902616717679013</c:v>
+                  <c:v>4.8567092223908581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4719221498080532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3600465577445355</c:v>
+                  <c:v>4.5147754664762072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0561710566021469</c:v>
+                  <c:v>4.6272654227301135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77423804802345131</c:v>
+                  <c:v>1.0936523524685295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4686812949950427</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3186618959348193</c:v>
+                  <c:v>0.8017141326667262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.245335237925186</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.825667112126569</c:v>
+                  <c:v>10.785644138916169</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.416002069233091</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.727637194464801</c:v>
+                  <c:v>10.666011963217571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +1120,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Case</a:t>
+                  <a:t>Scenario</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1171,7 +1374,1765 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t>Emissions reduced compared to Base Case 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23522293184213414"/>
+          <c:y val="2.0337050583208963E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% reduced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3D20-4AFA-83EF-D66DA07300BD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark1'!$B$6:$D$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="19"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20 %</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50 %</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>80 %</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20 %</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>50 %</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>80 %</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>20 %</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>50 %</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>80 %</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SR</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Time</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>SR</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Time</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1000 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>100 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1000 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>100 kw</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Base Case 2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Case 1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Case 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$H$6:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.8496562806892243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1603428265333449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0862422997946615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4165699491116861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7442192661369518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.196946701187394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5263815730738326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8567092223908581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5147754664762072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6272654227301135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0936523524685295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8017141326667262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.245335237925186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.785644138916169</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.666011963217571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3D20-4AFA-83EF-D66DA07300BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1686842064"/>
+        <c:axId val="1235574480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1686842064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800" b="1"/>
+                  <a:t>Scenario</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1235574480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1235574480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1800" b="1"/>
+                  <a:t>% Emissions reduced</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686842064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2000" b="1"/>
+              <a:t>Reduced emissions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="2000" b="1" baseline="0"/>
+              <a:t>compared to Base Case 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Ark2'!$B$6:$D$51</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="46"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>85%</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>92%</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>95%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Time</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>SR</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Time</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1000 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>100 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v> </c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Load</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1000 kw</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>100 kw</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Base Case 2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Case 1</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Case 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark2'!$H$6:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7442192661369518</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7442192661369518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7442192661369518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7468975984287116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8424247835014729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8522453352379253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8567092223908581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8638514418355507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4719221498080532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5147754664762072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5147754664762072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5147754664762072</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5120971341844482</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6129809838407283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6228015355771808</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6272654227301135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6317293098830463</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0936523524685295</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0936523524685295</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0936523524685295</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0936523524685295</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8017141326667262</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8017141326667262</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8017141326667262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.8017141326667262</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.238193018480493</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.242656905633426</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.245335237925186</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.248013570216944</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.785644138916169</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.785644138916169</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.785644138916169</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.785644138916169</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.666011963217571</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.666011963217571</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.666011963217571</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.666011963217571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D5BE-4744-A30A-7378FB409784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="55025279"/>
+        <c:axId val="1994256895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55025279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1600" b="1"/>
+                  <a:t>Scenario</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994256895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1994256895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1600" b="1"/>
+                  <a:t>% emissions reduced</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55025279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1714,19 +3675,1025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1788317</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>178592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1735,6 +4702,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38715323-8EC2-4D11-A797-869E49262BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1784682</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>135354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CC6F37-28D7-4B73-962B-EF55D2758769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16666</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ABEE37-87B2-4FA8-B5B7-D682360C1BB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,518 +5096,1578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484CC78E-7637-41F3-8B5E-895E096BB397}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>41795</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="3">
         <v>112010</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="3">
         <f>$F$4-F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="26">
-        <f>G4*100/$F$26</f>
+      <c r="H4" s="11">
+        <f>G4*100/$F$25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
+    <row r="5" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="23">
         <v>0.2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="24">
         <v>40186</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <v>107698</v>
       </c>
       <c r="G6" s="24">
-        <f t="shared" ref="G6:G24" si="0">$F$4-F6</f>
+        <f t="shared" ref="G6:G14" si="0">$F$4-F6</f>
         <v>4312</v>
       </c>
-      <c r="H6" s="31">
-        <f t="shared" ref="H6:H25" si="1">G6*100/$F$26</f>
-        <v>3.7177221192395566</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8">
+      <c r="H6" s="26">
+        <f>G6*100/$F$4</f>
+        <v>3.8496562806892243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="27">
         <v>0.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="28">
         <v>40056</v>
       </c>
       <c r="F7" s="29">
         <v>107350</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="28">
         <f t="shared" si="0"/>
         <v>4660</v>
       </c>
-      <c r="H7" s="32">
-        <f t="shared" si="1"/>
-        <v>4.0177609173600031</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9">
+      <c r="H7" s="26">
+        <f t="shared" ref="H7:H24" si="1">G7*100/$F$4</f>
+        <v>4.1603428265333449</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="30">
         <v>0.8</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="31">
         <v>39926</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="32">
         <v>107001</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
         <v>5009</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>4.3186618959348193</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="13">
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="42"/>
+      <c r="C9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23">
         <v>0.2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E9" s="24">
         <v>40087</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F9" s="25">
         <v>107433</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>4577</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>3.9461999396473684</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16">
+        <v>4.0862422997946615</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="27">
         <v>0.5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E10" s="28">
         <v>39949</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F10" s="29">
         <v>107063</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G10" s="28">
         <f t="shared" si="0"/>
         <v>4947</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>4.2652067077639346</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19">
+        <v>4.4165699491116861</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="30">
         <v>0.8</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E11" s="31">
         <v>39812</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F11" s="32">
         <v>106696</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
         <v>5314</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H11" s="26">
         <f t="shared" si="1"/>
-        <v>4.5816269345173941</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13">
+        <v>4.7442192661369518</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="42"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="23">
         <v>0.2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E12" s="24">
         <v>40041</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F12" s="25">
         <v>107309</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>4701</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H12" s="26">
         <f t="shared" si="1"/>
-        <v>4.0531103159891364</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16">
+        <v>4.196946701187394</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="27">
         <v>0.5</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E13" s="28">
         <v>39903</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F13" s="29">
         <v>106940</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G13" s="28">
         <f t="shared" si="0"/>
         <v>5070</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H13" s="26">
         <f t="shared" si="1"/>
-        <v>4.3712549036513346</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19">
+        <v>4.5263815730738326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="30">
         <v>0.8</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E14" s="31">
         <v>39765</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F14" s="32">
         <v>106570</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G14" s="31">
         <f t="shared" si="0"/>
         <v>5440</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H14" s="26">
         <f t="shared" si="1"/>
-        <v>4.6902616717679013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+        <v>4.8567092223908581</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>39926</v>
+      </c>
+      <c r="F16" s="33">
+        <v>107001</v>
+      </c>
+      <c r="G16" s="4">
+        <f>$F$4-F16</f>
+        <v>5009</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="1"/>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="36"/>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>39908</v>
+      </c>
+      <c r="F17" s="33">
+        <v>106953</v>
+      </c>
+      <c r="G17" s="5">
+        <f>$F$4-F17</f>
+        <v>5057</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="1"/>
+        <v>4.5147754664762072</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="36"/>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>39861</v>
+      </c>
+      <c r="F18" s="33">
+        <v>106827</v>
+      </c>
+      <c r="G18" s="5">
+        <f>$F$4-F18</f>
+        <v>5183</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="1"/>
+        <v>4.6272654227301135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="36"/>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <v>41338</v>
+      </c>
+      <c r="F19" s="33">
+        <v>110785</v>
+      </c>
+      <c r="G19" s="5">
+        <f>$F$4-F19</f>
+        <v>1225</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0936523524685295</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="37"/>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>41460</v>
+      </c>
+      <c r="F20" s="33">
+        <v>111112</v>
+      </c>
+      <c r="G20" s="6">
+        <f>$F$4-F20</f>
+        <v>898</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="1"/>
+        <v>0.8017141326667262</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="16"/>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
+        <v>36677</v>
+      </c>
+      <c r="F22" s="10">
+        <v>98294</v>
+      </c>
+      <c r="G22" s="10">
+        <f>$F$4-F22</f>
+        <v>13716</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="1"/>
+        <v>12.245335237925186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="39"/>
+      <c r="C23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>37287</v>
+      </c>
+      <c r="F23" s="9">
+        <v>99929</v>
+      </c>
+      <c r="G23" s="9">
+        <f>$F$4-F23</f>
+        <v>12081</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="1"/>
+        <v>10.785644138916169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="40"/>
+      <c r="C24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>37337</v>
+      </c>
+      <c r="F24" s="7">
+        <v>100063</v>
+      </c>
+      <c r="G24" s="7">
+        <f>$F$4-F24</f>
+        <v>11947</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="1"/>
+        <v>10.666011963217571</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43278</v>
+      </c>
+      <c r="F25" s="6">
+        <v>115985</v>
+      </c>
+      <c r="G25" s="6">
+        <f>$F$25-F25</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B6:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA33D0DC-DBFB-4901-AB30-B1CB8E266208}">
+  <dimension ref="B2:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>39908</v>
-      </c>
-      <c r="F17" s="28">
-        <v>106953</v>
-      </c>
-      <c r="G17" s="24">
-        <f t="shared" si="0"/>
-        <v>5057</v>
-      </c>
-      <c r="H17" s="31">
-        <f t="shared" si="1"/>
-        <v>4.3600465577445355</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2">
-        <v>41338</v>
-      </c>
-      <c r="F18" s="29">
-        <v>110785</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-      <c r="H18" s="32">
-        <f t="shared" si="1"/>
-        <v>1.0561710566021469</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>41460</v>
-      </c>
-      <c r="F19" s="29">
-        <v>111112</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="0"/>
-        <v>898</v>
-      </c>
-      <c r="H19" s="32">
-        <f t="shared" si="1"/>
-        <v>0.77423804802345131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>41795</v>
+      </c>
+      <c r="F4" s="3">
+        <v>112010</v>
+      </c>
+      <c r="G4" s="3">
+        <f>$F$4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f>G4*100/$F$52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2">
-        <v>39861</v>
-      </c>
-      <c r="F20" s="29">
-        <v>106827</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="0"/>
-        <v>5183</v>
-      </c>
-      <c r="H20" s="32">
-        <f t="shared" si="1"/>
-        <v>4.4686812949950427</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="C6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="28">
         <v>39926</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F6" s="28">
         <v>107001</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G6" s="28">
+        <f>$F$4-F6</f>
+        <v>5009</v>
+      </c>
+      <c r="H6" s="47">
+        <f>G6*100/$F$4</f>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="28">
+        <v>39926</v>
+      </c>
+      <c r="F7" s="28">
+        <v>107001</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" ref="G7:G17" si="0">$F$4-F7</f>
+        <v>5009</v>
+      </c>
+      <c r="H7" s="47">
+        <f t="shared" ref="H7:H52" si="1">G7*100/$F$4</f>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="E8" s="28">
+        <v>39926</v>
+      </c>
+      <c r="F8" s="28">
+        <v>107001</v>
+      </c>
+      <c r="G8" s="28">
         <f t="shared" si="0"/>
         <v>5009</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H8" s="47">
         <f t="shared" si="1"/>
-        <v>4.3186618959348193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="14">
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="28">
+        <v>39926</v>
+      </c>
+      <c r="F9" s="28">
+        <v>107001</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
+        <v>5009</v>
+      </c>
+      <c r="H9" s="47">
+        <f t="shared" si="1"/>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="42"/>
+      <c r="C10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="24">
+        <v>39812</v>
+      </c>
+      <c r="F10" s="24">
+        <v>106696</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>5314</v>
+      </c>
+      <c r="H10" s="47">
+        <f t="shared" si="1"/>
+        <v>4.7442192661369518</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="28">
+        <v>39812</v>
+      </c>
+      <c r="F11" s="28">
+        <v>106696</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="0"/>
+        <v>5314</v>
+      </c>
+      <c r="H11" s="47">
+        <f t="shared" si="1"/>
+        <v>4.7442192661369518</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="42"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="E12" s="28">
+        <v>39812</v>
+      </c>
+      <c r="F12" s="28">
+        <v>106696</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="0"/>
+        <v>5314</v>
+      </c>
+      <c r="H12" s="47">
+        <f t="shared" si="1"/>
+        <v>4.7442192661369518</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="42"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="31">
+        <v>39811</v>
+      </c>
+      <c r="F13" s="31">
+        <v>106693</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="0"/>
+        <v>5317</v>
+      </c>
+      <c r="H13" s="47">
+        <f t="shared" si="1"/>
+        <v>4.7468975984287116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="42"/>
+      <c r="C14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="E14" s="24">
+        <v>39771</v>
+      </c>
+      <c r="F14" s="24">
+        <v>106586</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="0"/>
+        <v>5424</v>
+      </c>
+      <c r="H14" s="47">
+        <f t="shared" si="1"/>
+        <v>4.8424247835014729</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="42"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="28">
+        <v>39767</v>
+      </c>
+      <c r="F15" s="28">
+        <v>106575</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>5435</v>
+      </c>
+      <c r="H15" s="47">
+        <f t="shared" si="1"/>
+        <v>4.8522453352379253</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="42"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="E16" s="28">
+        <v>39765</v>
+      </c>
+      <c r="F16" s="28">
+        <v>106570</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="0"/>
+        <v>5440</v>
+      </c>
+      <c r="H16" s="47">
+        <f t="shared" si="1"/>
+        <v>4.8567092223908581</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="42"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="E17" s="31">
+        <v>39762</v>
+      </c>
+      <c r="F17" s="31">
+        <v>106562</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="0"/>
+        <v>5448</v>
+      </c>
+      <c r="H17" s="47">
+        <f t="shared" si="1"/>
+        <v>4.8638514418355507</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="E19" s="50">
+        <v>39926</v>
+      </c>
+      <c r="F19" s="4">
+        <v>107001</v>
+      </c>
+      <c r="G19" s="50">
+        <f>$F$4-F19</f>
+        <v>5009</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" si="1"/>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="33">
+        <v>39926</v>
+      </c>
+      <c r="F20" s="5">
+        <v>107001</v>
+      </c>
+      <c r="G20" s="33">
+        <f>$F$4-F20</f>
+        <v>5009</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="1"/>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="49">
+        <v>0.92</v>
+      </c>
+      <c r="E21" s="33">
+        <v>39926</v>
+      </c>
+      <c r="F21" s="5">
+        <v>107001</v>
+      </c>
+      <c r="G21" s="33">
+        <f>$F$4-F21</f>
+        <v>5009</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="1"/>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="51">
+        <v>0.95</v>
+      </c>
+      <c r="E22" s="52">
+        <v>39926</v>
+      </c>
+      <c r="F22" s="6">
+        <v>107001</v>
+      </c>
+      <c r="G22" s="52">
+        <f>$F$4-F22</f>
+        <v>5009</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="1"/>
+        <v>4.4719221498080532</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="36"/>
+      <c r="C23" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="50">
+        <v>39908</v>
+      </c>
+      <c r="F23" s="4">
+        <v>106953</v>
+      </c>
+      <c r="G23" s="50">
+        <f t="shared" ref="G23:G38" si="2">$F$4-F23</f>
+        <v>5057</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="1"/>
+        <v>4.5147754664762072</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="33">
+        <v>39908</v>
+      </c>
+      <c r="F24" s="5">
+        <v>106953</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="2"/>
+        <v>5057</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" si="1"/>
+        <v>4.5147754664762072</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="49">
+        <v>0.92</v>
+      </c>
+      <c r="E25" s="33">
+        <v>39908</v>
+      </c>
+      <c r="F25" s="5">
+        <v>106953</v>
+      </c>
+      <c r="G25" s="33">
+        <f t="shared" si="2"/>
+        <v>5057</v>
+      </c>
+      <c r="H25" s="34">
+        <f t="shared" si="1"/>
+        <v>4.5147754664762072</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="51">
+        <v>0.95</v>
+      </c>
+      <c r="E26" s="52">
+        <v>39907</v>
+      </c>
+      <c r="F26" s="6">
+        <v>106956</v>
+      </c>
+      <c r="G26" s="52">
+        <f t="shared" si="2"/>
+        <v>5054</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" si="1"/>
+        <v>4.5120971341844482</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="36"/>
+      <c r="C27" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="E27" s="50">
+        <v>39867</v>
+      </c>
+      <c r="F27" s="4">
+        <v>106843</v>
+      </c>
+      <c r="G27" s="50">
+        <f t="shared" si="2"/>
+        <v>5167</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="1"/>
+        <v>4.6129809838407283</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="33">
+        <v>39863</v>
+      </c>
+      <c r="F28" s="5">
+        <v>106832</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="2"/>
+        <v>5178</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="1"/>
+        <v>4.6228015355771808</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="49">
+        <v>0.92</v>
+      </c>
+      <c r="E29" s="33">
+        <v>39861</v>
+      </c>
+      <c r="F29" s="5">
+        <v>106827</v>
+      </c>
+      <c r="G29" s="33">
+        <f t="shared" si="2"/>
+        <v>5183</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="1"/>
+        <v>4.6272654227301135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="51">
+        <v>0.95</v>
+      </c>
+      <c r="E30" s="52">
+        <v>39859</v>
+      </c>
+      <c r="F30" s="6">
+        <v>106822</v>
+      </c>
+      <c r="G30" s="52">
+        <f t="shared" si="2"/>
+        <v>5188</v>
+      </c>
+      <c r="H30" s="34">
+        <f t="shared" si="1"/>
+        <v>4.6317293098830463</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="36"/>
+      <c r="C31" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="E31" s="50">
+        <v>41338</v>
+      </c>
+      <c r="F31" s="4">
+        <v>110785</v>
+      </c>
+      <c r="G31" s="50">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="H31" s="34">
+        <f t="shared" si="1"/>
+        <v>1.0936523524685295</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="33">
+        <v>41338</v>
+      </c>
+      <c r="F32" s="5">
+        <v>110785</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="H32" s="34">
+        <f t="shared" si="1"/>
+        <v>1.0936523524685295</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="49">
+        <v>0.92</v>
+      </c>
+      <c r="E33" s="33">
+        <v>41338</v>
+      </c>
+      <c r="F33" s="5">
+        <v>110785</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="H33" s="34">
+        <f t="shared" si="1"/>
+        <v>1.0936523524685295</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="51">
+        <v>0.95</v>
+      </c>
+      <c r="E34" s="52">
+        <v>41338</v>
+      </c>
+      <c r="F34" s="6">
+        <v>110785</v>
+      </c>
+      <c r="G34" s="52">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="H34" s="34">
+        <f t="shared" si="1"/>
+        <v>1.0936523524685295</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="36"/>
+      <c r="C35" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="E35" s="50">
+        <v>41460</v>
+      </c>
+      <c r="F35" s="4">
+        <v>111112</v>
+      </c>
+      <c r="G35" s="50">
+        <f t="shared" si="2"/>
+        <v>898</v>
+      </c>
+      <c r="H35" s="34">
+        <f t="shared" si="1"/>
+        <v>0.8017141326667262</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="33">
+        <v>41460</v>
+      </c>
+      <c r="F36" s="5">
+        <v>111112</v>
+      </c>
+      <c r="G36" s="33">
+        <f t="shared" si="2"/>
+        <v>898</v>
+      </c>
+      <c r="H36" s="34">
+        <f t="shared" si="1"/>
+        <v>0.8017141326667262</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="49">
+        <v>0.92</v>
+      </c>
+      <c r="E37" s="33">
+        <v>41460</v>
+      </c>
+      <c r="F37" s="5">
+        <v>111112</v>
+      </c>
+      <c r="G37" s="33">
+        <f t="shared" si="2"/>
+        <v>898</v>
+      </c>
+      <c r="H37" s="34">
+        <f t="shared" si="1"/>
+        <v>0.8017141326667262</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="51">
+        <v>0.95</v>
+      </c>
+      <c r="E38" s="52">
+        <v>41460</v>
+      </c>
+      <c r="F38" s="6">
+        <v>111112</v>
+      </c>
+      <c r="G38" s="52">
+        <f t="shared" si="2"/>
+        <v>898</v>
+      </c>
+      <c r="H38" s="34">
+        <f t="shared" si="1"/>
+        <v>0.8017141326667262</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="16"/>
+      <c r="C39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="E40" s="9">
+        <v>36680</v>
+      </c>
+      <c r="F40" s="45">
+        <v>98302</v>
+      </c>
+      <c r="G40" s="9">
+        <f>$F$4-F40</f>
+        <v>13708</v>
+      </c>
+      <c r="H40" s="47">
+        <f t="shared" si="1"/>
+        <v>12.238193018480493</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="39"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="7">
+        <v>36678</v>
+      </c>
+      <c r="F41" s="7">
+        <v>98297</v>
+      </c>
+      <c r="G41" s="7">
+        <f>$F$4-F41</f>
+        <v>13713</v>
+      </c>
+      <c r="H41" s="47">
+        <f t="shared" si="1"/>
+        <v>12.242656905633426</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="39"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="53">
+        <v>0.92</v>
+      </c>
+      <c r="E42" s="7">
         <v>36677</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F42" s="44">
         <v>98294</v>
       </c>
-      <c r="G23" s="14">
-        <f t="shared" si="0"/>
+      <c r="G42" s="7">
+        <f>$F$4-F42</f>
         <v>13716</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H42" s="47">
         <f t="shared" si="1"/>
-        <v>11.825667112126569</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="17">
+        <v>12.245335237925186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="39"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="E43" s="10">
+        <v>36676</v>
+      </c>
+      <c r="F43" s="46">
+        <v>98291</v>
+      </c>
+      <c r="G43" s="9">
+        <f>$F$4-F43</f>
+        <v>13719</v>
+      </c>
+      <c r="H43" s="47">
+        <f t="shared" si="1"/>
+        <v>12.248013570216944</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="39"/>
+      <c r="C44" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="E44" s="9">
         <v>37287</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F44" s="45">
         <v>99929</v>
       </c>
-      <c r="G24" s="17">
-        <f t="shared" si="0"/>
+      <c r="G44" s="9">
+        <f>$F$4-F44</f>
         <v>12081</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H44" s="47">
         <f t="shared" si="1"/>
-        <v>10.416002069233091</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="20">
+        <v>10.785644138916169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="39"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="7">
+        <v>37287</v>
+      </c>
+      <c r="F45" s="44">
+        <v>99929</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" ref="G45:G47" si="3">$F$4-F45</f>
+        <v>12081</v>
+      </c>
+      <c r="H45" s="47">
+        <f t="shared" si="1"/>
+        <v>10.785644138916169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="39"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="53">
+        <v>0.92</v>
+      </c>
+      <c r="E46" s="7">
+        <v>37287</v>
+      </c>
+      <c r="F46" s="44">
+        <v>99929</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="3"/>
+        <v>12081</v>
+      </c>
+      <c r="H46" s="47">
+        <f t="shared" si="1"/>
+        <v>10.785644138916169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="39"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="E47" s="10">
+        <v>37287</v>
+      </c>
+      <c r="F47" s="46">
+        <v>99929</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="3"/>
+        <v>12081</v>
+      </c>
+      <c r="H47" s="47">
+        <f t="shared" si="1"/>
+        <v>10.785644138916169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="39"/>
+      <c r="C48" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="54">
+        <v>0.85</v>
+      </c>
+      <c r="E48" s="9">
         <v>37337</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F48" s="45">
         <v>100063</v>
       </c>
-      <c r="G25" s="20">
-        <f>$F$26-F25</f>
-        <v>15922</v>
-      </c>
-      <c r="H25" s="39">
+      <c r="G48" s="9">
+        <f>$F$4-F48</f>
+        <v>11947</v>
+      </c>
+      <c r="H48" s="47">
         <f t="shared" si="1"/>
-        <v>13.727637194464801</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="23">
+        <v>10.666011963217571</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="39"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="E49" s="7">
+        <v>37337</v>
+      </c>
+      <c r="F49" s="44">
+        <v>100063</v>
+      </c>
+      <c r="G49" s="7">
+        <f>$F$4-F49</f>
+        <v>11947</v>
+      </c>
+      <c r="H49" s="47">
+        <f t="shared" si="1"/>
+        <v>10.666011963217571</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="39"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="53">
+        <v>0.92</v>
+      </c>
+      <c r="E50" s="7">
+        <v>37337</v>
+      </c>
+      <c r="F50" s="44">
+        <v>100063</v>
+      </c>
+      <c r="G50" s="7">
+        <f>$F$4-F50</f>
+        <v>11947</v>
+      </c>
+      <c r="H50" s="47">
+        <f t="shared" si="1"/>
+        <v>10.666011963217571</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="40"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="E51" s="10">
+        <v>37337</v>
+      </c>
+      <c r="F51" s="46">
+        <v>100063</v>
+      </c>
+      <c r="G51" s="10">
+        <f>$F$4-F51</f>
+        <v>11947</v>
+      </c>
+      <c r="H51" s="47">
+        <f t="shared" si="1"/>
+        <v>10.666011963217571</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6">
         <v>43278</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F52" s="6">
         <v>115985</v>
       </c>
-      <c r="G26" s="10">
-        <f>$F$26-F26</f>
+      <c r="G52" s="6">
+        <f>$F$52-F52</f>
         <v>0</v>
       </c>
+      <c r="H52" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B10:B15"/>
+  <mergeCells count="14">
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B19:B38"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
